--- a/system_storage/history/programme/BCS-September-2023 S4.xlsx
+++ b/system_storage/history/programme/BCS-September-2023 S4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Day / Time</t>
   </si>
@@ -78,6 +78,95 @@
   </si>
   <si>
     <t>18:00</t>
+  </si>
+  <si>
+    <t>PRG1203-G8-Practical
+(Ling Mee Hong)
+UC3-3</t>
+  </si>
+  <si>
+    <t>SEG1201-G1-Lecture
+(Nor Hafizah Binti Mohamed Halip)
+JC1</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>CSC2103-G1-Practical
+(Pyi Phyo Aung)
+UE2-16</t>
+  </si>
+  <si>
+    <t>PRG1203-G1-Practical
+(Ling Mee Hong)
+UC3-3</t>
+  </si>
+  <si>
+    <t>PRG1203-G2-Practical
+(Ling Mee Hong)
+UC3-3</t>
+  </si>
+  <si>
+    <t>PRG1203-G3-Practical
+(Ling Mee Hong)
+UC3-3</t>
+  </si>
+  <si>
+    <t>CSC2103-G2-Practical
+(Pyi Phyo Aung)
+UE2-16</t>
+  </si>
+  <si>
+    <t>PRG1203-G4-Practical
+(Ling Mee Hong)
+UC3-3</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>CSC2103-G1-Lecture
+(Pyi Phyo Aung)
+JC1</t>
+  </si>
+  <si>
+    <t>NET3204-G1-Practical
+(Foo Jinny)
+UC3-3</t>
+  </si>
+  <si>
+    <t>CSC2103-G3-Practical
+(Pyi Phyo Aung)
+UE2-16</t>
+  </si>
+  <si>
+    <t>NET3204-G3-Practical
+(Foo Jinny)
+UC3-3</t>
+  </si>
+  <si>
+    <t>NET3204-G4-Practical
+(Foo Jinny)
+UC3-3</t>
+  </si>
+  <si>
+    <t>CSC2103-G4-Practical
+(Pyi Phyo Aung)
+UE2-16</t>
+  </si>
+  <si>
+    <t>NET3204-G2-Practical
+(Foo Jinny)
+UC3-3</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>PRG1203-G7-Practical
+(Ling Mee Hong)
+UC3-3</t>
   </si>
   <si>
     <t>PRG1203-G1-Lecture
@@ -85,120 +174,41 @@
 JC1</t>
   </si>
   <si>
-    <t>WEB1201-G4-Practical
-(Tan Yue Hern)
-UC3-3</t>
-  </si>
-  <si>
-    <t>PRG1203-G5-Practical
-(Ling Mee Hong)
-UE2-17</t>
-  </si>
-  <si>
     <t>PRG1203-G6-Practical
 (Ling Mee Hong)
-UE2-17</t>
-  </si>
-  <si>
-    <t>WEB1201-G5-Practical
-(Tan Yue Hern)
-UC3-3</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>CSC2103-G1-Practical
-(Pyi Phyo Aung)
-UE2-16</t>
-  </si>
-  <si>
-    <t>WEB1201-G6-Practical
-(Tan Yue Hern)
-UC3-4</t>
-  </si>
-  <si>
-    <t>PRG1203-G1-Practical
-(Ling Mee Hong)
-UE2-17</t>
-  </si>
-  <si>
-    <t>CSC2103-G2-Practical
-(Pyi Phyo Aung)
-UE2-16</t>
-  </si>
-  <si>
-    <t>PRG1203-G2-Practical
-(Ling Mee Hong)
-UE2-17</t>
-  </si>
-  <si>
-    <t>CSC2103-G3-Practical
-(Pyi Phyo Aung)
-UE2-16</t>
-  </si>
-  <si>
-    <t>PRG1203-G3-Practical
-(Ling Mee Hong)
-UE2-17</t>
-  </si>
-  <si>
-    <t>PRG1203-G4-Practical
-(Ling Mee Hong)
-UE2-17</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>CSC2103-G1-Lecture
-(Pyi Phyo Aung)
-Uni Lecture Theatre 1</t>
+UC3-3</t>
   </si>
   <si>
     <t>SEG1201-G1-Practical
 (Matthew Yeow Yit Hang)
-UE2-17</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>WEB1201-G1-Lecture
-(Javid Iqbal)
+UC3-3</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>NET3204-G6-Practical
+(Foo Jinny)
+UC3-3</t>
+  </si>
+  <si>
+    <t>PRG1203-G5-Practical
+(Ling Mee Hong)
+UC3-3</t>
+  </si>
+  <si>
+    <t>NET3204-G1-Lecture
+(Yawar Abbas)
 JC1</t>
   </si>
   <si>
-    <t>WEB1201-G1-Practical
-(Tan Yue Hern)
-UC3-3</t>
-  </si>
-  <si>
-    <t>WEB1201-G2-Practical
-(Tan Yue Hern)
-UC3-3</t>
-  </si>
-  <si>
-    <t>WEB1201-G3-Practical
-(Tan Yue Hern)
-UC3-3</t>
-  </si>
-  <si>
-    <t>SEG1201-G2-Practical
-(Matthew Yeow Yit Hang)
-UE2-17</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>SEG1201-G1-Lecture
-(Nor Hafizah Binti Mohamed Halip)
-Uni Lecture Theatre 1</t>
-  </si>
-  <si>
-    <t>SEG1201-G3-Practical
-(Matthew Yeow Yit Hang)
+    <t>NET3204-G5-Practical
+(Foo Jinny)
+UC3-3</t>
+  </si>
+  <si>
+    <t>NET3204-G7-Practical
+(Foo Jinny)
 UC3-3</t>
   </si>
   <si>
@@ -208,7 +218,7 @@
     <t>Timetable Fitness Score:</t>
   </si>
   <si>
-    <t>99.93%</t>
+    <t>98.94%</t>
   </si>
 </sst>
 </file>
@@ -352,13 +362,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.59375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="9.8984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="5.4921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="5.4921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="5.4921875" customWidth="true" bestFit="true"/>
@@ -452,138 +462,144 @@
     </row>
     <row r="2" ht="62.4" customHeight="true">
       <c r="A2" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="62.4" customHeight="true">
+      <c r="A3" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s" s="5">
         <v>27</v>
       </c>
-      <c r="B2" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" ht="62.4" customHeight="true">
-      <c r="F3" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s" s="5">
+      <c r="L3" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="Q3" t="s" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="62.4" customHeight="true">
+      <c r="B4" t="s" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" ht="62.4" customHeight="true">
-      <c r="A4" t="s" s="1">
+      <c r="O4" t="s" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" ht="62.4" customHeight="true">
+      <c r="A5" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="B4" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s" s="5">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" ht="62.4" customHeight="true">
-      <c r="B5" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s" s="5">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s" s="5">
-        <v>34</v>
+      <c r="Q5" t="s" s="5">
+        <v>38</v>
       </c>
     </row>
     <row r="6" ht="62.4" customHeight="true">
       <c r="B6" t="s" s="5">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="G6" t="s" s="5">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s" s="5">
+        <v>37</v>
       </c>
     </row>
     <row r="7" ht="62.4" customHeight="true">
       <c r="A7" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="B7" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="N7" t="s" s="5">
+        <v>42</v>
       </c>
       <c r="R7" t="s" s="5">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" ht="62.4" customHeight="true">
       <c r="A8" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s" s="5">
         <v>45</v>
       </c>
-      <c r="B8" t="s" s="3">
-        <v>40</v>
-      </c>
       <c r="F8" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="K8" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="P8" t="s" s="5">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="N8" t="s" s="5">
+        <v>48</v>
+      </c>
+      <c r="R8" t="s" s="5">
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="62.4" customHeight="true">
-      <c r="R9" t="s" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" ht="62.4" customHeight="true">
-      <c r="A10" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s" s="3">
-        <v>46</v>
-      </c>
-      <c r="N10" t="s" s="5">
+      <c r="F9" t="s" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s" s="6">
-        <v>50</v>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s" s="6">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="27">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="G6:J6"/>
     <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="N7:Q7"/>
     <mergeCell ref="R7:U7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:I8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R8:U8"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="N10:Q10"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/system_storage/history/programme/BCS-September-2023 S4.xlsx
+++ b/system_storage/history/programme/BCS-September-2023 S4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Day / Time</t>
   </si>
@@ -80,8 +80,13 @@
     <t>18:00</t>
   </si>
   <si>
-    <t>PRG1203-G8-Practical
-(Ling Mee Hong)
+    <t>CSC3206-G2-Practical
+(Amanda Song Cheen)
+UE2-16</t>
+  </si>
+  <si>
+    <t>SEG1201-G4-Practical
+(Matthew Yeow Yit Hang)
 UC3-3</t>
   </si>
   <si>
@@ -90,6 +95,16 @@
 JC1</t>
   </si>
   <si>
+    <t>PRG1203-G2-Practical
+(Ling Mee Hong)
+UE2-17</t>
+  </si>
+  <si>
+    <t>PRG1203-G3-Practical
+(Ling Mee Hong)
+UE2-17</t>
+  </si>
+  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -98,19 +113,24 @@
 UE2-16</t>
   </si>
   <si>
-    <t>PRG1203-G1-Practical
-(Ling Mee Hong)
-UC3-3</t>
-  </si>
-  <si>
-    <t>PRG1203-G2-Practical
-(Ling Mee Hong)
-UC3-3</t>
-  </si>
-  <si>
-    <t>PRG1203-G3-Practical
-(Ling Mee Hong)
-UC3-3</t>
+    <t>PRG1203-G5-Practical
+(Ling Mee Hong)
+UC3-3</t>
+  </si>
+  <si>
+    <t>CSC3206-G3-Practical
+(Amanda Song Cheen)
+UE2-17</t>
+  </si>
+  <si>
+    <t>SEG1201-G3-Practical
+(Matthew Yeow Yit Hang)
+UC3-3</t>
+  </si>
+  <si>
+    <t>CSC3206-G4-Practical
+(Amanda Song Cheen)
+UE2-17</t>
   </si>
   <si>
     <t>CSC2103-G2-Practical
@@ -118,7 +138,12 @@
 UE2-16</t>
   </si>
   <si>
-    <t>PRG1203-G4-Practical
+    <t>CSC2103-G3-Practical
+(Pyi Phyo Aung)
+UE2-16</t>
+  </si>
+  <si>
+    <t>PRG1203-G8-Practical
 (Ling Mee Hong)
 UC3-3</t>
   </si>
@@ -131,41 +156,16 @@
 JC1</t>
   </si>
   <si>
-    <t>NET3204-G1-Practical
-(Foo Jinny)
-UC3-3</t>
-  </si>
-  <si>
-    <t>CSC2103-G3-Practical
-(Pyi Phyo Aung)
-UE2-16</t>
-  </si>
-  <si>
-    <t>NET3204-G3-Practical
-(Foo Jinny)
-UC3-3</t>
-  </si>
-  <si>
-    <t>NET3204-G4-Practical
-(Foo Jinny)
-UC3-3</t>
-  </si>
-  <si>
     <t>CSC2103-G4-Practical
 (Pyi Phyo Aung)
 UE2-16</t>
   </si>
   <si>
-    <t>NET3204-G2-Practical
-(Foo Jinny)
-UC3-3</t>
-  </si>
-  <si>
     <t>Wednesday</t>
   </si>
   <si>
-    <t>PRG1203-G7-Practical
-(Ling Mee Hong)
+    <t>SEG1201-G1-Practical
+(Matthew Yeow Yit Hang)
 UC3-3</t>
   </si>
   <si>
@@ -174,41 +174,36 @@
 JC1</t>
   </si>
   <si>
+    <t>SEG1201-G2-Practical
+(Matthew Yeow Yit Hang)
+UC3-3</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>PRG1203-G4-Practical
+(Ling Mee Hong)
+UC3-3</t>
+  </si>
+  <si>
+    <t>CSC3206-G1-Lecture
+(Amanda Song Cheen)
+JC1</t>
+  </si>
+  <si>
     <t>PRG1203-G6-Practical
 (Ling Mee Hong)
 UC3-3</t>
   </si>
   <si>
-    <t>SEG1201-G1-Practical
-(Matthew Yeow Yit Hang)
-UC3-3</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>NET3204-G6-Practical
-(Foo Jinny)
-UC3-3</t>
-  </si>
-  <si>
-    <t>PRG1203-G5-Practical
-(Ling Mee Hong)
-UC3-3</t>
-  </si>
-  <si>
-    <t>NET3204-G1-Lecture
-(Yawar Abbas)
-JC1</t>
-  </si>
-  <si>
-    <t>NET3204-G5-Practical
-(Foo Jinny)
-UC3-3</t>
-  </si>
-  <si>
-    <t>NET3204-G7-Practical
-(Foo Jinny)
+    <t>CSC3206-G1-Practical
+(Amanda Song Cheen)
+UE2-16</t>
+  </si>
+  <si>
+    <t>PRG1203-G7-Practical
+(Ling Mee Hong)
 UC3-3</t>
   </si>
   <si>
@@ -218,7 +213,7 @@
     <t>Timetable Fitness Score:</t>
   </si>
   <si>
-    <t>98.94%</t>
+    <t>98.9%</t>
   </si>
 </sst>
 </file>
@@ -362,13 +357,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.8984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.59375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="5.4921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="5.4921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="5.4921875" customWidth="true" bestFit="true"/>
@@ -462,144 +457,142 @@
     </row>
     <row r="2" ht="62.4" customHeight="true">
       <c r="A2" t="s" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="5">
         <v>22</v>
       </c>
       <c r="J2" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" ht="62.4" customHeight="true">
+      <c r="B3" t="s" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="62.4" customHeight="true">
-      <c r="A3" t="s" s="1">
+    <row r="4" ht="62.4" customHeight="true">
+      <c r="A4" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="B3" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s" s="5">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="Q3" t="s" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" ht="62.4" customHeight="true">
-      <c r="B4" t="s" s="5">
-        <v>26</v>
+      <c r="J4" t="s" s="5">
+        <v>33</v>
       </c>
       <c r="O4" t="s" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="62.4" customHeight="true">
+      <c r="B5" t="s" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" ht="62.4" customHeight="true">
-      <c r="A5" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s" s="3">
+      <c r="G5" t="s" s="5">
         <v>32</v>
       </c>
-      <c r="G5" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="Q5" t="s" s="5">
-        <v>38</v>
+      <c r="P5" t="s" s="5">
+        <v>35</v>
       </c>
     </row>
     <row r="6" ht="62.4" customHeight="true">
       <c r="B6" t="s" s="5">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s" s="5">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s" s="5">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" ht="62.4" customHeight="true">
       <c r="A7" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s" s="5">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="N7" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="R7" t="s" s="5">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s" s="5">
+        <v>38</v>
       </c>
     </row>
     <row r="8" ht="62.4" customHeight="true">
       <c r="A8" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" ht="62.4" customHeight="true">
+      <c r="A9" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s" s="5">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s" s="5">
+        <v>46</v>
+      </c>
+      <c r="R9" t="s" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" ht="62.4" customHeight="true">
+      <c r="B10" t="s" s="3">
+        <v>45</v>
+      </c>
+      <c r="R10" t="s" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B8" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="N8" t="s" s="5">
-        <v>48</v>
-      </c>
-      <c r="R8" t="s" s="5">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" ht="62.4" customHeight="true">
-      <c r="F9" t="s" s="3">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
+      <c r="B12" t="s" s="6">
         <v>51</v>
       </c>
-      <c r="B11" t="s" s="6">
-        <v>52</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="26">
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="A3:A4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F4:I4"/>
     <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
     <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/system_storage/history/programme/BCS-September-2023 S4.xlsx
+++ b/system_storage/history/programme/BCS-September-2023 S4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Day / Time</t>
   </si>
@@ -83,6 +83,11 @@
     <t>CSC3206-G2-Practical
 (Amanda Song Cheen)
 UE2-16</t>
+  </si>
+  <si>
+    <t>PRG1203-G1-Practical
+(Ling Mee Hong)
+UE2-17</t>
   </si>
   <si>
     <t>SEG1201-G4-Practical
@@ -357,7 +362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -457,19 +462,19 @@
     </row>
     <row r="2" ht="62.4" customHeight="true">
       <c r="A2" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="5">
         <v>22</v>
       </c>
       <c r="J2" t="s" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" ht="62.4" customHeight="true">
@@ -478,30 +483,24 @@
       </c>
     </row>
     <row r="4" ht="62.4" customHeight="true">
-      <c r="A4" t="s" s="1">
-        <v>36</v>
-      </c>
       <c r="B4" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s" s="5">
-        <v>33</v>
-      </c>
-      <c r="O4" t="s" s="5">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="62.4" customHeight="true">
+      <c r="A5" t="s" s="1">
+        <v>37</v>
+      </c>
       <c r="B5" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="G5" t="s" s="5">
+      <c r="F5" t="s" s="5">
         <v>32</v>
       </c>
-      <c r="P5" t="s" s="5">
+      <c r="J5" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="O5" t="s" s="5">
         <v>35</v>
       </c>
     </row>
@@ -509,90 +508,102 @@
       <c r="B6" t="s" s="5">
         <v>30</v>
       </c>
+      <c r="G6" t="s" s="5">
+        <v>33</v>
+      </c>
+      <c r="P6" t="s" s="5">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" ht="62.4" customHeight="true">
-      <c r="A7" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s" s="5">
-        <v>38</v>
+      <c r="B7" t="s" s="5">
+        <v>31</v>
       </c>
     </row>
     <row r="8" ht="62.4" customHeight="true">
       <c r="A8" t="s" s="1">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s" s="5">
         <v>40</v>
       </c>
-      <c r="F8" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="N8" t="s" s="5">
-        <v>42</v>
+      <c r="B8" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s" s="5">
+        <v>39</v>
       </c>
     </row>
     <row r="9" ht="62.4" customHeight="true">
       <c r="A9" t="s" s="1">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="G9" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="R9" t="s" s="5">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s" s="3">
+        <v>42</v>
+      </c>
+      <c r="N9" t="s" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" ht="62.4" customHeight="true">
+      <c r="A10" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s" s="5">
         <v>47</v>
-      </c>
-    </row>
-    <row r="10" ht="62.4" customHeight="true">
-      <c r="B10" t="s" s="3">
-        <v>45</v>
       </c>
       <c r="R10" t="s" s="5">
         <v>48</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s" s="6">
+    <row r="11" ht="62.4" customHeight="true">
+      <c r="B11" t="s" s="3">
+        <v>46</v>
+      </c>
+      <c r="R11" t="s" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
         <v>51</v>
       </c>
+      <c r="B13" t="s" s="6">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="R2:U2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="A4:A6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="G8:J8"/>
     <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="N9:Q9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="G10:J10"/>
     <mergeCell ref="R10:U10"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
